--- a/2016_01_AllState_Claim_Severity_Prediction/Modelling/TUNING_GBM/TOP_FEATURES_GBM.xlsx
+++ b/2016_01_AllState_Claim_Severity_Prediction/Modelling/TUNING_GBM/TOP_FEATURES_GBM.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="1" r:id="rId1"/>
     <sheet name="TOP_FEATURES" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="261">
   <si>
     <t>variable</t>
   </si>
@@ -435,6 +436,372 @@
   </si>
   <si>
     <t>GBM FEATURE SELECTION MATRIX</t>
+  </si>
+  <si>
+    <t>cat89,</t>
+  </si>
+  <si>
+    <t>cat104,</t>
+  </si>
+  <si>
+    <t>cat50,</t>
+  </si>
+  <si>
+    <t>cat97,</t>
+  </si>
+  <si>
+    <t>cat52,</t>
+  </si>
+  <si>
+    <t>cat10,</t>
+  </si>
+  <si>
+    <t>cat92,</t>
+  </si>
+  <si>
+    <t>cat7,</t>
+  </si>
+  <si>
+    <t>cat3,</t>
+  </si>
+  <si>
+    <t>cat65,</t>
+  </si>
+  <si>
+    <t>cat66,</t>
+  </si>
+  <si>
+    <t>cat8,</t>
+  </si>
+  <si>
+    <t>cat67,</t>
+  </si>
+  <si>
+    <t>cat42,</t>
+  </si>
+  <si>
+    <t>cat54,</t>
+  </si>
+  <si>
+    <t>cat95,</t>
+  </si>
+  <si>
+    <t>cat32,</t>
+  </si>
+  <si>
+    <t>cat19,</t>
+  </si>
+  <si>
+    <t>cat78,</t>
+  </si>
+  <si>
+    <t>cat21,</t>
+  </si>
+  <si>
+    <t>cat29,</t>
+  </si>
+  <si>
+    <t>cat51,</t>
+  </si>
+  <si>
+    <t>cat85,</t>
+  </si>
+  <si>
+    <t>cat40,</t>
+  </si>
+  <si>
+    <t>cat16,</t>
+  </si>
+  <si>
+    <t>cat41,</t>
+  </si>
+  <si>
+    <t>cat28,</t>
+  </si>
+  <si>
+    <t>cat45,</t>
+  </si>
+  <si>
+    <t>cat43,</t>
+  </si>
+  <si>
+    <t>cat98,</t>
+  </si>
+  <si>
+    <t>cat30,</t>
+  </si>
+  <si>
+    <t>cat74,</t>
+  </si>
+  <si>
+    <t>cat24,</t>
+  </si>
+  <si>
+    <t>cat88,</t>
+  </si>
+  <si>
+    <t>cat86,</t>
+  </si>
+  <si>
+    <t>cat96,</t>
+  </si>
+  <si>
+    <t>cat18,</t>
+  </si>
+  <si>
+    <t>cat59,</t>
+  </si>
+  <si>
+    <t>cat17,</t>
+  </si>
+  <si>
+    <t>cat14,</t>
+  </si>
+  <si>
+    <t>cat56,</t>
+  </si>
+  <si>
+    <t>cat71,</t>
+  </si>
+  <si>
+    <t>cat33,</t>
+  </si>
+  <si>
+    <t>cat34,</t>
+  </si>
+  <si>
+    <t>cat61,</t>
+  </si>
+  <si>
+    <t>cat46,</t>
+  </si>
+  <si>
+    <t>cat68,</t>
+  </si>
+  <si>
+    <t>cat60,</t>
+  </si>
+  <si>
+    <t>cat47,</t>
+  </si>
+  <si>
+    <t>cat63,</t>
+  </si>
+  <si>
+    <t>cat48,</t>
+  </si>
+  <si>
+    <t>cat35,</t>
+  </si>
+  <si>
+    <t>cat22,</t>
+  </si>
+  <si>
+    <t>cat55,</t>
+  </si>
+  <si>
+    <t>cat58,</t>
+  </si>
+  <si>
+    <t>cat20,</t>
+  </si>
+  <si>
+    <t>cat62,</t>
+  </si>
+  <si>
+    <t>cat70,</t>
+  </si>
+  <si>
+    <t>cat15,</t>
+  </si>
+  <si>
+    <t>cat69,</t>
+  </si>
+  <si>
+    <t>cat64,</t>
+  </si>
+  <si>
+    <t>-cat89,</t>
+  </si>
+  <si>
+    <t>-cat104,</t>
+  </si>
+  <si>
+    <t>-cat50,</t>
+  </si>
+  <si>
+    <t>-cat97,</t>
+  </si>
+  <si>
+    <t>-cat52,</t>
+  </si>
+  <si>
+    <t>-cat10,</t>
+  </si>
+  <si>
+    <t>-cat92,</t>
+  </si>
+  <si>
+    <t>-cat7,</t>
+  </si>
+  <si>
+    <t>-cat3,</t>
+  </si>
+  <si>
+    <t>-cat65,</t>
+  </si>
+  <si>
+    <t>-cat66,</t>
+  </si>
+  <si>
+    <t>-cat8,</t>
+  </si>
+  <si>
+    <t>-cat67,</t>
+  </si>
+  <si>
+    <t>-cat42,</t>
+  </si>
+  <si>
+    <t>-cat54,</t>
+  </si>
+  <si>
+    <t>-cat95,</t>
+  </si>
+  <si>
+    <t>-cat32,</t>
+  </si>
+  <si>
+    <t>-cat19,</t>
+  </si>
+  <si>
+    <t>-cat78,</t>
+  </si>
+  <si>
+    <t>-cat21,</t>
+  </si>
+  <si>
+    <t>-cat29,</t>
+  </si>
+  <si>
+    <t>-cat51,</t>
+  </si>
+  <si>
+    <t>-cat85,</t>
+  </si>
+  <si>
+    <t>-cat40,</t>
+  </si>
+  <si>
+    <t>-cat16,</t>
+  </si>
+  <si>
+    <t>-cat41,</t>
+  </si>
+  <si>
+    <t>-cat28,</t>
+  </si>
+  <si>
+    <t>-cat45,</t>
+  </si>
+  <si>
+    <t>-cat43,</t>
+  </si>
+  <si>
+    <t>-cat98,</t>
+  </si>
+  <si>
+    <t>-cat30,</t>
+  </si>
+  <si>
+    <t>-cat74,</t>
+  </si>
+  <si>
+    <t>-cat24,</t>
+  </si>
+  <si>
+    <t>-cat88,</t>
+  </si>
+  <si>
+    <t>-cat86,</t>
+  </si>
+  <si>
+    <t>-cat96,</t>
+  </si>
+  <si>
+    <t>-cat18,</t>
+  </si>
+  <si>
+    <t>-cat59,</t>
+  </si>
+  <si>
+    <t>-cat17,</t>
+  </si>
+  <si>
+    <t>-cat14,</t>
+  </si>
+  <si>
+    <t>-cat56,</t>
+  </si>
+  <si>
+    <t>-cat71,</t>
+  </si>
+  <si>
+    <t>-cat33,</t>
+  </si>
+  <si>
+    <t>-cat34,</t>
+  </si>
+  <si>
+    <t>-cat61,</t>
+  </si>
+  <si>
+    <t>-cat46,</t>
+  </si>
+  <si>
+    <t>-cat68,</t>
+  </si>
+  <si>
+    <t>-cat60,</t>
+  </si>
+  <si>
+    <t>-cat47,</t>
+  </si>
+  <si>
+    <t>-cat63,</t>
+  </si>
+  <si>
+    <t>-cat48,</t>
+  </si>
+  <si>
+    <t>-cat35,</t>
+  </si>
+  <si>
+    <t>-cat22,</t>
+  </si>
+  <si>
+    <t>-cat55,</t>
+  </si>
+  <si>
+    <t>-cat58,</t>
+  </si>
+  <si>
+    <t>-cat20,</t>
+  </si>
+  <si>
+    <t>-cat62,</t>
+  </si>
+  <si>
+    <t>-cat70,</t>
+  </si>
+  <si>
+    <t>-cat15,</t>
+  </si>
+  <si>
+    <t>-cat69,</t>
+  </si>
+  <si>
+    <t>-cat64,</t>
   </si>
 </sst>
 </file>
@@ -1065,127 +1432,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -18314,7 +18561,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:B131" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -18862,22 +19109,22 @@
     <dataField name="Avg. % Importance" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="11">
-    <format dxfId="32">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="8">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="12">
@@ -18897,7 +19144,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="3">
@@ -18908,13 +19155,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="10">
@@ -18932,7 +19179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="10">
@@ -58710,9 +58957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M71" sqref="M71"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59473,7 +59720,7 @@
       <c r="B68" s="7">
         <v>4.8168050453690218E-4</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
@@ -59484,7 +59731,7 @@
       <c r="B69" s="7">
         <v>4.5392764238984739E-4</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
@@ -60177,4 +60424,943 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BN61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:AI11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="str">
+        <f xml:space="preserve"> CONCATENATE("-",A1, ",")</f>
+        <v>-cat30,</v>
+      </c>
+      <c r="C1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B61" si="0" xml:space="preserve"> CONCATENATE("-",A2, ",")</f>
+        <v>-cat74,</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat24,</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat88,</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat86,</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat96,</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O6" t="s">
+        <v>209</v>
+      </c>
+      <c r="P6" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>211</v>
+      </c>
+      <c r="R6" t="s">
+        <v>212</v>
+      </c>
+      <c r="S6" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" t="s">
+        <v>214</v>
+      </c>
+      <c r="U6" t="s">
+        <v>215</v>
+      </c>
+      <c r="V6" t="s">
+        <v>216</v>
+      </c>
+      <c r="W6" t="s">
+        <v>217</v>
+      </c>
+      <c r="X6" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>250</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>251</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>252</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>253</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>255</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>256</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>257</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>258</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>259</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat18,</v>
+      </c>
+      <c r="C7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>150</v>
+      </c>
+      <c r="R7" t="s">
+        <v>151</v>
+      </c>
+      <c r="S7" t="s">
+        <v>152</v>
+      </c>
+      <c r="T7" t="s">
+        <v>153</v>
+      </c>
+      <c r="U7" t="s">
+        <v>154</v>
+      </c>
+      <c r="V7" t="s">
+        <v>155</v>
+      </c>
+      <c r="W7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>195</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>198</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat59,</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat17,</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat14,</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat56,</v>
+      </c>
+      <c r="C11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K11" t="s">
+        <v>236</v>
+      </c>
+      <c r="L11" t="s">
+        <v>237</v>
+      </c>
+      <c r="M11" t="s">
+        <v>238</v>
+      </c>
+      <c r="N11" t="s">
+        <v>239</v>
+      </c>
+      <c r="O11" t="s">
+        <v>240</v>
+      </c>
+      <c r="P11" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>242</v>
+      </c>
+      <c r="R11" t="s">
+        <v>243</v>
+      </c>
+      <c r="S11" t="s">
+        <v>244</v>
+      </c>
+      <c r="T11" t="s">
+        <v>245</v>
+      </c>
+      <c r="U11" t="s">
+        <v>246</v>
+      </c>
+      <c r="V11" t="s">
+        <v>247</v>
+      </c>
+      <c r="W11" t="s">
+        <v>248</v>
+      </c>
+      <c r="X11" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat71,</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat33,</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat34,</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat61,</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat46,</v>
+      </c>
+      <c r="C16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat68,</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat60,</v>
+      </c>
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat47,</v>
+      </c>
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat63,</v>
+      </c>
+      <c r="C20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat48,</v>
+      </c>
+      <c r="C21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat35,</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat22,</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat55,</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat58,</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat20,</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat62,</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat70,</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat15,</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat69,</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>-cat64,</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>